--- a/contents/battle_2/battle_2.xlsx
+++ b/contents/battle_2/battle_2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37365ED2-EA5B-475E-8D44-4DE57B81A0C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EEF77F-99DC-4823-B914-56219F2F5A37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="interactions" sheetId="11" r:id="rId2"/>
     <sheet name="units" sheetId="2" r:id="rId3"/>
+    <sheet name="parameters" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
   <si>
     <t>x</t>
   </si>
@@ -47,9 +48,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>attack</t>
-  </si>
-  <si>
     <t>defense</t>
   </si>
   <si>
@@ -147,6 +145,45 @@
   </si>
   <si>
     <t>peaks,terraces</t>
+  </si>
+  <si>
+    <t>siege</t>
+  </si>
+  <si>
+    <t>attack_melee</t>
+  </si>
+  <si>
+    <t>attack_range</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>melee_distance</t>
+  </si>
+  <si>
+    <t>melee_height_difference_threshold</t>
+  </si>
+  <si>
+    <t>archer_distance</t>
+  </si>
+  <si>
+    <t>archer_distance_height_gain</t>
+  </si>
+  <si>
+    <t>siege_distance</t>
+  </si>
+  <si>
+    <t>siege_distance_height_gain</t>
+  </si>
+  <si>
+    <t>flier_distance</t>
+  </si>
+  <si>
+    <t>flier_distance_height_gain</t>
   </si>
 </sst>
 </file>
@@ -171,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +245,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -221,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -232,12 +281,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -512,15 +569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -531,28 +588,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -566,25 +623,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2">
-        <f>B2*2</f>
-        <v>8</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L44" si="0">C2*1.5</f>
-        <v>33.75</v>
-      </c>
-      <c r="M2">
-        <f>B2-1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -598,22 +643,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K45" si="1">B3*2</f>
-        <v>12</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>33.75</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M45" si="2">B3-1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -627,25 +660,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>33.75</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -659,25 +680,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>31.5</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -691,25 +700,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>31.5</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -723,25 +720,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>29.25</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -755,22 +740,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>29.25</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -784,25 +757,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>29.25</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -816,25 +777,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -848,25 +797,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -880,25 +817,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>24.75</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -912,22 +837,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>24.75</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -941,25 +854,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>24.75</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -973,25 +874,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1005,25 +894,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1037,25 +914,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>20.25</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1069,25 +934,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>20.25</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1101,25 +954,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1133,25 +974,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1165,25 +994,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>15.75</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1197,25 +1014,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>15.75</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1229,22 +1034,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1258,25 +1051,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1290,25 +1071,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1322,25 +1091,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1354,25 +1111,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1386,22 +1131,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1415,25 +1148,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1447,25 +1168,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1479,25 +1188,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1511,25 +1208,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1543,22 +1228,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1572,25 +1245,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1604,25 +1265,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1636,25 +1285,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>37</v>
       </c>
@@ -1668,22 +1305,10 @@
         <v>7</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>38</v>
       </c>
@@ -1697,25 +1322,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>39</v>
       </c>
@@ -1729,22 +1342,10 @@
         <v>7</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>40</v>
       </c>
@@ -1758,22 +1359,10 @@
         <v>7</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>41</v>
       </c>
@@ -1787,22 +1376,10 @@
         <v>7</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>42</v>
       </c>
@@ -1816,25 +1393,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="2"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43</v>
       </c>
@@ -1848,22 +1413,10 @@
         <v>7</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>44</v>
       </c>
@@ -1877,25 +1430,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>14.625</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>45</v>
       </c>
@@ -1909,19 +1450,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="L45">
-        <f>C45*1.5</f>
-        <v>11.25</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1932,37 +1461,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CDC32-9C71-4924-88B2-6E23C700FAA0}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="B2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7">
         <v>-1</v>
@@ -1972,12 +1504,12 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="7">
         <v>-1</v>
@@ -1985,12 +1517,12 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7">
         <v>-1</v>
@@ -2000,12 +1532,12 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
@@ -2013,12 +1545,12 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
@@ -2033,20 +1565,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE17DB7-E6BE-4178-A86C-3E370AE7D84E}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2060,726 +1594,886 @@
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
         <v>8</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <v>12</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
         <v>14</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
       <c r="J9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
         <v>16</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
       <c r="J10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
+      <c r="C13" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
         <v>9</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
       <c r="J14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
+      <c r="C15" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
         <v>11</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
+      <c r="C16" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
         <v>13</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
+      <c r="C17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
       <c r="J17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
+      <c r="C18" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
         <v>17</v>
       </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
       <c r="J18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>12</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>37</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
       <c r="J19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
         <v>12</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>38</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
       <c r="J20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
         <v>12</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>41</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
         <v>12</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>42</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <v>12</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>39</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5548F1A3-2805-4B16-9459-F43CAA23013A}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
